--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6CB18-0EBC-4F72-A68E-66207876E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E695285-E442-47E1-9A4C-69C2FAA31DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{BE0FBB6B-BF5E-4D1C-9718-2EF08122DB49}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{9CA79542-4ABB-40A7-BD2F-87480795EFED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC14A42-6DF3-47D5-A765-ACF22ACAFF24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E8AE4-BB83-4FB9-BBB5-2A785DDB07B4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E695285-E442-47E1-9A4C-69C2FAA31DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F0898-80B8-40D1-B1EB-CDAF1D49B764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{9CA79542-4ABB-40A7-BD2F-87480795EFED}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{9AF94865-CC2F-44BB-B3E8-CB843B91FF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -43,6 +43,86 @@
   </si>
   <si>
     <t xml:space="preserve"> Oct 01, 2020</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Tech keyboard black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4Tech HS-800 headphone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Memo Pad Tablet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Desktop C2500 Keyboard+Mouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech B170 Wireless Mouse (Black) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benq G2020HDA Screen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech B525 Commercial HD Webcam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GST 8% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zebronics Crystal Pro Web Camera (red) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP-Link UH400 4-Port USB Hub (Black) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Gear Dragonwar Emera ELE-G11 3200 DPI _x000D_
+Gaming Mouse (Dark Blue) _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Graphics Adapters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techair Hard case - Flip cover for tablet - PET - Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Docking Station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNEkT GEAR - Patch cable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORT Torino - Notebook sleeve - 15.6" - black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP - Disk drive - DVD-RW - USB - external </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers - Logitech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 4 GB for Desktop Mini PC </t>
   </si>
 </sst>
 </file>
@@ -78,8 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,27 +476,438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E8AE4-BB83-4FB9-BBB5-2A785DDB07B4}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E2CB71-5329-4747-A521-C08F61FE9294}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>281092</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>900</v>
+      </c>
+      <c r="G3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7800</v>
+      </c>
+      <c r="G4">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>18360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>900</v>
+      </c>
+      <c r="G13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7800</v>
+      </c>
+      <c r="G14">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1500</v>
+      </c>
+      <c r="G15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>600</v>
+      </c>
+      <c r="G16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1500</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2700</v>
+      </c>
+      <c r="G19">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>800</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2100</v>
+      </c>
+      <c r="G23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2000</v>
+      </c>
+      <c r="G26">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F0898-80B8-40D1-B1EB-CDAF1D49B764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1450B9C-2358-470D-8304-A2DD987FE750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{9AF94865-CC2F-44BB-B3E8-CB843B91FF6E}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{207E1950-814B-4B78-9C94-76A3B64D797C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -45,19 +45,25 @@
     <t xml:space="preserve"> Oct 01, 2020</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>ItemNo</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>GST</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -476,437 +482,453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E2CB71-5329-4747-A521-C08F61FE9294}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2303F4-0827-4747-98C4-0509EFC69FEF}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>281092</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>600</v>
-      </c>
-      <c r="G2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>900</v>
-      </c>
-      <c r="G3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>7800</v>
-      </c>
-      <c r="G4">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1500</v>
-      </c>
-      <c r="G5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>600</v>
       </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>2872</v>
+      </c>
+      <c r="I6">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7800</v>
+      </c>
+      <c r="G8">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1500</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>1500</v>
       </c>
-      <c r="G7">
+      <c r="G11">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2000</v>
       </c>
-      <c r="G8">
+      <c r="G12">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
         <v>17000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
         <v>1360</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
         <v>18360</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>600</v>
-      </c>
-      <c r="G12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>900</v>
-      </c>
-      <c r="G13">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>7800</v>
-      </c>
-      <c r="G14">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1500</v>
-      </c>
-      <c r="G15">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>600</v>
       </c>
       <c r="G16">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G17">
-        <v>3000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2000</v>
+        <v>7800</v>
       </c>
       <c r="G18">
-        <v>2000</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G19">
-        <v>2700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>600</v>
+      </c>
+      <c r="G20">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2000</v>
-      </c>
-      <c r="G20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="G21">
-        <v>800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="G23">
-        <v>2100</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G25">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2100</v>
+      </c>
+      <c r="G27">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>2000</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>2000</v>
       </c>
     </row>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1450B9C-2358-470D-8304-A2DD987FE750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD80CB-B1D0-48E2-AAAD-A2FD9D71C73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{207E1950-814B-4B78-9C94-76A3B64D797C}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{17CC5E6C-173F-4750-9F37-D26E1317A047}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>SubTotal</t>
-  </si>
-  <si>
-    <t>GST</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -482,14 +476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2303F4-0827-4747-98C4-0509EFC69FEF}">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE5546E-D841-4E64-BA40-091A651CEA8E}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>281092</v>
       </c>
@@ -505,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -519,21 +513,15 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -544,19 +532,13 @@
       <c r="G6">
         <v>600</v>
       </c>
-      <c r="H6">
-        <v>2872</v>
-      </c>
-      <c r="I6">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -568,12 +550,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -585,12 +567,12 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -602,12 +584,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -619,12 +601,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -636,12 +618,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -653,36 +635,36 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>17000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>18360</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -699,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -716,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -733,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -750,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -767,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -784,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -801,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -818,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -835,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -852,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -869,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -886,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -903,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -920,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>1</v>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>InvoiceNo</x:t>
   </x:si>
@@ -205,12 +205,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">HP 4 GB for Desktop Mini PC </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 130792 
-Invoice Date: Sep 01, 2020 
-Due Date: Sep 15, 2020 
-</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">16 </x:t>
@@ -1037,66 +1031,61 @@
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
+      <x:c r="A27" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
+      <x:c r="A28" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D28" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7">
-      <x:c r="C29" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
-      <x:c r="F30" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
+      <x:c r="D30" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
-      <x:c r="F31" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
+      <x:c r="D31" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
         <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:7">
-      <x:c r="F32" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>73</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10DED9-94EF-428F-BB96-E4F46A0C5EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5EF780-8776-4379-803C-3492784A8A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52590" yWindow="2265" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>InvoiceNo #</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Oct 01, 2020</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">01 </t>
@@ -533,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,262 +584,262 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>15</v>
+      <c r="A20" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2000</v>
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -832,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -849,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -863,7 +878,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1">
         <v>35900</v>
@@ -871,7 +886,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1">
         <v>2872</v>
@@ -879,7 +894,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1">
         <v>38772</v>
@@ -890,7 +905,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -907,7 +922,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -921,7 +936,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1">
         <v>35900</v>
@@ -929,7 +944,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1">
         <v>2872</v>
@@ -937,7 +952,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1">
         <v>38772</v>
@@ -948,7 +963,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -965,7 +980,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -979,7 +994,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E33" s="1">
         <v>35900</v>
@@ -987,7 +1002,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1">
         <v>2872</v>
@@ -995,7 +1010,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E35" s="1">
         <v>38772</v>
@@ -1006,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -1023,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1037,7 +1052,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D38" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1">
         <v>35900</v>
@@ -1045,7 +1060,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E39" s="1">
         <v>2872</v>
@@ -1053,7 +1068,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1">
         <v>38772</v>
@@ -1064,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -1081,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1095,7 +1110,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1">
         <v>35900</v>
@@ -1103,7 +1118,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E44" s="1">
         <v>2872</v>
@@ -1111,7 +1126,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E45" s="1">
         <v>38772</v>
@@ -1122,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
@@ -1139,7 +1154,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1153,7 +1168,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1">
         <v>35900</v>
@@ -1161,7 +1176,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E49" s="1">
         <v>2872</v>
@@ -1169,67 +1184,531 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E50" s="1">
         <v>38772</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>2000</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>6000</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>17</v>
       </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52">
-        <v>1900</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="1">
         <v>1900</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="1">
         <v>35900</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="1">
         <v>2872</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="1">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>17</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="1">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>16</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="1">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="1">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>17</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="1">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="1">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>16</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E71" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>17</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="1">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="1">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>16</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>17</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="1">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="1">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>16</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>17</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="1">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="1">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E86" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>17</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="1">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="1">
+        <v>38772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2000</v>
+      </c>
+      <c r="E91">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1900</v>
+      </c>
+      <c r="E92">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93">
+        <v>35900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>57</v>
+      </c>
+      <c r="E94">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95">
         <v>38772</v>
       </c>
     </row>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5EF780-8776-4379-803C-3492784A8A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65194E-E2DB-4A50-92D6-DC8EEE4F0A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52590" yWindow="2265" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53430" yWindow="285" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>InvoiceNo #</t>
   </si>
@@ -548,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,11 +655,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1016,699 +1016,61 @@
         <v>38772</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="1">
+        <v>59</v>
+      </c>
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>2000</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>6000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>17</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>1900</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>1900</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>35900</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>2872</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>16</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>16</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E46" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>17</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>16</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E51" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>17</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>16</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E56" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>17</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>16</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E61" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>17</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>16</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="1">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E66" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>17</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>16</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="1">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E71" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>17</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E74" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>16</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="1">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E76" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>17</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D78" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D80" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>16</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="1">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E81" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>17</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D83" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D84" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E84" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D85" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E85" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>16</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="1">
-        <v>3</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E86" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>17</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D88" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E89" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D90" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>16</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91">
-        <v>3</v>
-      </c>
-      <c r="D91">
-        <v>2000</v>
-      </c>
-      <c r="E91">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>17</v>
-      </c>
-      <c r="B92" t="s">
-        <v>55</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1900</v>
-      </c>
-      <c r="E92">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D94" t="s">
-        <v>57</v>
-      </c>
-      <c r="E94">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E95">
+      <c r="E40">
         <v>38772</v>
       </c>
     </row>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/JoeyTribbiani281092.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio\Desktop\RPA_uipath\Invoice Scraping Project\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65194E-E2DB-4A50-92D6-DC8EEE4F0A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4EA307-487C-4512-91E7-FE08AD5C4465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53430" yWindow="285" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>InvoiceNo #</t>
   </si>
@@ -201,11 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP Laserjet Multifunction Printer B/W (2nd Tray _x000D_
-Optional) _x000D_
-</t>
   </si>
 </sst>
 </file>
@@ -548,13 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -587,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -604,7 +606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -621,7 +623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -638,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -655,7 +657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -672,7 +674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -689,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -706,7 +708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -723,7 +725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -740,7 +742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -757,7 +759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -774,7 +776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -791,7 +793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -808,7 +810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -825,7 +827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -842,7 +844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -859,7 +861,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -876,7 +878,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>56</v>
       </c>
@@ -884,7 +886,7 @@
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
@@ -892,7 +894,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
@@ -900,179 +902,164 @@
         <v>38772</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>16</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E26" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>16</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="1">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="1">
-        <v>38772</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>2000</v>
-      </c>
-      <c r="E36">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1900</v>
-      </c>
-      <c r="E37">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38">
-        <v>35900</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40">
-        <v>38772</v>
-      </c>
+    <row r="26" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
